--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/15/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.918699999999994</v>
+        <v>-6.994099999999994</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.985799999999998</v>
+        <v>5.190499999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.395700000000001</v>
+        <v>-7.415399999999998</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.689700000000014</v>
+        <v>-8.674500000000011</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.080800000000006</v>
+        <v>5.987300000000009</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.48</v>
+        <v>-8.470699999999997</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.330799999999998</v>
+        <v>6.350600000000001</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.874199999999998</v>
+        <v>-8.024900000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.128100000000005</v>
+        <v>8.977100000000004</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.571699999999997</v>
+        <v>-7.625199999999999</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.328099999999999</v>
+        <v>5.091900000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.637099999999998</v>
+        <v>-7.684499999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.5764</v>
+        <v>6.264700000000002</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.8014</v>
+        <v>-7.886399999999997</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.6633</v>
+        <v>4.894799999999996</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.464999999999998</v>
+        <v>5.384599999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.1772</v>
+        <v>5.384099999999998</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.624399999999996</v>
+        <v>-8.468200000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.350499999999996</v>
+        <v>5.374399999999998</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.1153</v>
+        <v>5.141099999999997</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.111700000000003</v>
+        <v>5.137000000000005</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.931999999999992</v>
+        <v>-6.908699999999993</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1842,13 +1842,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.334599999999999</v>
+        <v>5.211699999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.178899999999995</v>
+        <v>-9.0631</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.951200000000002</v>
+        <v>5.027200000000002</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.399100000000002</v>
+        <v>5.479600000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.300400000000001</v>
+        <v>5.517200000000003</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.693199999999999</v>
+        <v>4.630699999999996</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.066000000000006</v>
+        <v>-8.0068</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.676899999999997</v>
+        <v>-7.743999999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
